--- a/Excel/burncd.xlsx
+++ b/Excel/burncd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,102 +9,276 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="86">
+  <si>
+    <t>BurnCD - Audacity Manual</t>
+  </si>
+  <si>
+    <t>BurnCD</t>
+  </si>
+  <si>
+    <t>From Audacity Development Manual</t>
+  </si>
+  <si>
+    <t>Jump to: navigation, search</t>
+  </si>
+  <si>
+    <t>To burn your work to an audio CD for standalone CD players, first export it as WAV or AIFF.</t>
+  </si>
+  <si>
+    <t>The exported WAV or AIFF file should be:</t>
+  </si>
+  <si>
+    <t>stereo</t>
+  </si>
+  <si>
+    <t>44100 Hz (set at Project Rate at bottom left of the project window)</t>
+  </si>
+  <si>
+    <t>16-bit (chosen using the "Save as type" menu in the File Export Dialog ).</t>
+  </si>
+  <si>
+    <t>These are Audacity's default settings, so normally you will not need to change these before exporting.</t>
+  </si>
+  <si>
+    <t>Burn the exported file to an "audio CD" - not a "data CD" or "MP3 CD" - with a CD burning application like iTunes or Windows Media Player.</t>
+  </si>
+  <si>
+    <t>For more help, see Burning music files to a CD.</t>
+  </si>
+  <si>
+    <t>|&lt; Back to: Getting Started</t>
+  </si>
+  <si>
+    <t>Navigation</t>
+  </si>
+  <si>
+    <t>Manual Home Page</t>
+  </si>
+  <si>
+    <t>Using Audacity</t>
+  </si>
+  <si>
+    <t>Tour Guide</t>
+  </si>
+  <si>
+    <t>New Features</t>
+  </si>
+  <si>
+    <t>Getting Started</t>
+  </si>
+  <si>
+    <t>Tutorials</t>
+  </si>
+  <si>
+    <t>Tips</t>
+  </si>
+  <si>
+    <t>Audacity GUI</t>
+  </si>
+  <si>
+    <t>Menu Bar</t>
+  </si>
+  <si>
+    <t>Toolbars</t>
+  </si>
+  <si>
+    <t>Tracks</t>
+  </si>
+  <si>
+    <t>Effects</t>
+  </si>
+  <si>
+    <t>Customizing Audacity</t>
+  </si>
+  <si>
+    <t>Preferences</t>
+  </si>
+  <si>
+    <t>Key-bindings</t>
+  </si>
+  <si>
+    <t>Plug-ins</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Digital Audio</t>
+  </si>
+  <si>
+    <t>Glossary</t>
+  </si>
+  <si>
+    <t>All Commands</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>FAQ</t>
+  </si>
+  <si>
+    <t>Useful Links</t>
+  </si>
+  <si>
+    <t>Forum</t>
+  </si>
+  <si>
+    <t>Wiki</t>
+  </si>
+  <si>
+    <t>Latest Release</t>
+  </si>
+  <si>
+    <t>WIT</t>
+  </si>
+  <si>
+    <t>This version created on 2018-09-17 - Check current version of this page (development Manual)</t>
+  </si>
+  <si>
+    <t>सीडी(CD) मध्ये जतन करा  - ओड्यासिटी माहिती पुस्तिका</t>
+  </si>
+  <si>
+    <t>सीडी(CD) मध्ये जतन करा</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विकास माहिती पुस्तिका वरुन</t>
+  </si>
+  <si>
+    <t>येथे जा: सुचालन , शोध</t>
+  </si>
+  <si>
+    <t>स्वतंत्र सीडी(CD) वाजक उपकरणसाठी ध्वनी सीडी(CD)वर आपले कार्य जतन करण्यासाठी प्रथम त्यास डब्ल्यूएव्ही(WAV) किंवा एआयएफएफ(AIFF) म्हणून निर्यात करा.</t>
+  </si>
+  <si>
+    <t>निर्यात केलेली डब्ल्यूएव्ही(WAV) किंवा एआयएफएफ(AIFF) धारिका अशी असावी:</t>
+  </si>
+  <si>
+    <t>स्टिरीओ</t>
+  </si>
+  <si>
+    <t>44100 हर्ट्ज ( प्रकल्प विंडोच्या डावीकडे तळाशी असलेल्या प्रकल्प दरावर निवड केलेले )</t>
+  </si>
+  <si>
+    <t>16-बिट ( धारिका निर्यात संवादातील "प्रकार म्हणून जतन करा" मेनू वापरुन निवडलेले )</t>
+  </si>
+  <si>
+    <t>या ओड्यासिटीच्या पूर्वनिर्धारीत समायोजन आहेत, म्हणून सामान्यत: निर्यात करण्यापूर्वी आपल्याला या बदलण्याची आवश्यकता नसते.</t>
+  </si>
+  <si>
+    <t>आयट्यून्स किंवा विंडोज मीडिया वाजक उपकरण सारख्या सीडी(CD) जतन अनुप्रयोगासह निर्यात केलेली धारिका "ध्वनी सीडी(CD)" वर जतन करा - "माहिती सीडी(CD)" किंवा "एमपी३(Mp3) सीडी(CD)" नाही.</t>
+  </si>
+  <si>
+    <t>अधिक मदतीसाठी, सीडी(CD)वर संगीत धारिका जतन करणे पहा .</t>
+  </si>
+  <si>
+    <t>| &lt; परत: प्रारंभ करणे</t>
+  </si>
+  <si>
+    <t>सुचालन</t>
+  </si>
+  <si>
+    <t>माहिती पुस्तिका मुख्यपृष्ठ</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी वापरणे</t>
+  </si>
+  <si>
+    <t>मार्गदर्शक सहल</t>
+  </si>
+  <si>
+    <t>नवीन वैशिष्ट्य</t>
+  </si>
+  <si>
+    <t>प्रारंभ करणे</t>
+  </si>
+  <si>
+    <t>प्रशिक्षण</t>
+  </si>
+  <si>
+    <t>टिपा</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी जीयूआय(GUI)</t>
+  </si>
+  <si>
+    <t>मेनू पट्टी</t>
+  </si>
+  <si>
+    <t>साधनपट्टी</t>
+  </si>
+  <si>
+    <t>गीतपट्टा</t>
+  </si>
+  <si>
+    <t>परिणाम</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी सानुकूलित करत आहे</t>
+  </si>
+  <si>
+    <t>प्राधान्ये</t>
+  </si>
+  <si>
+    <t>कळ-बंधन</t>
+  </si>
+  <si>
+    <t>प्लग-इन्स</t>
+  </si>
+  <si>
+    <t>संदर्भ</t>
+  </si>
+  <si>
+    <t>डिजिटल ध्वनी</t>
+  </si>
+  <si>
+    <t>शब्दकोष</t>
+  </si>
+  <si>
+    <t>सर्व आज्ञा</t>
+  </si>
+  <si>
+    <t>अनुक्रमणिका</t>
+  </si>
+  <si>
+    <t>सामान्य प्रश्न</t>
+  </si>
+  <si>
+    <t>उपयुक्त दुवे</t>
+  </si>
+  <si>
+    <t>मंच</t>
+  </si>
+  <si>
+    <t>विकी</t>
+  </si>
+  <si>
+    <t>नवीनतम प्रकाशन</t>
+  </si>
+  <si>
+    <t>डब्ल्यूआयटी(WIT)</t>
+  </si>
+  <si>
+    <t>ही आवृत्ती 2018-09-17 रोजी तयार केली - या पृष्ठाची सद्य आवृत्ती तपासा (विकास पुस्तिका)</t>
+  </si>
   <si>
     <t>English</t>
   </si>
   <si>
     <t>Marathi</t>
-  </si>
-  <si>
-    <t>BurnCD - Audacity Manual</t>
-  </si>
-  <si>
-    <t>BurnCD</t>
-  </si>
-  <si>
-    <t>From Audacity Development Manual</t>
-  </si>
-  <si>
-    <t>Jump to: navigation, search</t>
-  </si>
-  <si>
-    <t>To burn your work to an audio CD for standalone CD players, first export it as WAV or AIFF.</t>
-  </si>
-  <si>
-    <t>The exported WAV or AIFF file should be:</t>
-  </si>
-  <si>
-    <t>stereo</t>
-  </si>
-  <si>
-    <t>44100 Hz (set at Project Rate at bottom left of the project window)</t>
-  </si>
-  <si>
-    <t>16-bit (chosen using the "Save as type" menu in the File Export Dialog ).</t>
-  </si>
-  <si>
-    <t>These are Audacity's default settings, so normally you will not need to change these before exporting.</t>
-  </si>
-  <si>
-    <t>Burn the exported file to an "audio CD" - not a "data CD" or "MP3 CD" - with a CD burning application like iTunes or Windows Media Player.</t>
-  </si>
-  <si>
-    <t>For more help, see Burning music files to a CD.</t>
-  </si>
-  <si>
-    <t>|&lt; Back to: Getting Started</t>
-  </si>
-  <si>
-    <t>बर्नडीडी - ऑडेसिटी मॅन्युअल</t>
-  </si>
-  <si>
-    <t>बर्नसीडी</t>
-  </si>
-  <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
-    <t>येथे जा: सुचालन, शोध</t>
-  </si>
-  <si>
-    <t>स्टँडअलोन सीडी प्लेयरसाठी ऑडिओ सीडीवर आपले कार्य बर्न करण्यासाठी प्रथम त्यास डब्ल्यूएव्ही किंवा एआयएफएफ म्हणून निर्यात करा.</t>
-  </si>
-  <si>
-    <t>निर्यात केलेली डब्ल्यूएव्ही किंवा एआयएफएफ फाइल अशी असावी:</t>
-  </si>
-  <si>
-    <t>स्टिरीओ</t>
-  </si>
-  <si>
-    <t>44100 हर्ट्ज (प्रकल्प खिडकीच्या डावीकडे तळाशी असलेल्या प्रकल्प दरावर सेट)</t>
-  </si>
-  <si>
-    <t>16-बिट (फाइल निर्यात संवादातील "प्रकार म्हणून जतन करा" मेनू वापरुन निवडलेले)</t>
-  </si>
-  <si>
-    <t>या ऑडसिटीच्या डीफॉल्ट सेटिंग्ज आहेत, म्हणून सामान्यत: निर्यात करण्यापूर्वी आपल्याला या बदलण्याची आवश्यकता नसते.</t>
-  </si>
-  <si>
-    <t>आयट्यून्स किंवा विंडोज मीडिया प्लेयर सारख्या सीडी बर्निंग अनुप्रयोगासह निर्यात केलेली फाईल "ऑडिओ सीडी" वर बर्न करा - "डेटा सीडी" किंवा "एमपी 3 सीडी" नाही.</t>
-  </si>
-  <si>
-    <t>अधिक मदतीसाठी, सीडीवर संगीत फायली बर्न करणे पहा.</t>
-  </si>
-  <si>
-    <t>| &lt;परत: प्रारंभ करणे</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +341,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -245,6 +424,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -279,6 +459,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -454,162 +635,369 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="97.5703125" customWidth="1"/>
+    <col min="2" max="2" width="100" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
